--- a/Documentation/Diccionario Datos.xlsx
+++ b/Documentation/Diccionario Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71C0DC-1383-4FF3-8CA9-EC1F53A76B12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE6360-0BB6-4D67-8DDF-E687EC52612A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A605EA-20FC-4326-ABD3-33A9B62DE887}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="297">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -699,18 +699,6 @@
     <t>allLendedItems</t>
   </si>
   <si>
-    <t>Consulta que devuelve la cantidad de items en la tabla Items</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve la cantidad de items en la tabla de PersonLendItem</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve todos los items en orden alfabetico, filtrable por nombre y apellido de un autor, y editorial</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve todos los items prestados en orden alfabetico, filtrable por nombre y apellido de una persona, dias de prestamo, tolerancia y maximo de tolerancia</t>
-  </si>
-  <si>
     <t>NotBorrowedTotal</t>
   </si>
   <si>
@@ -726,19 +714,217 @@
     <t>AgeOfPeopleLoan</t>
   </si>
   <si>
-    <t>Consulta que devuelve un cursor con todos los items que no se encuentran bajo ningun prestamo</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve la cantidad de todos los items que no se encuentran bajo ningun prestamo</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve la cantidad de N items que se encuentran prestados</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve un cursor con todos los items prestados N veces durante N meses</t>
-  </si>
-  <si>
-    <t>Consulta que devuelve los items prestados en conjunto de la edad de las personas dividido en grupos de edad</t>
+    <t>systemLogOperations</t>
+  </si>
+  <si>
+    <t>totalBookGenre</t>
+  </si>
+  <si>
+    <t>totalLendedBookNow</t>
+  </si>
+  <si>
+    <t>totalLendedBook</t>
+  </si>
+  <si>
+    <t>totalLendedBookGenre</t>
+  </si>
+  <si>
+    <t>totalLendedBookAge</t>
+  </si>
+  <si>
+    <t>Getcollection</t>
+  </si>
+  <si>
+    <t>GetItems</t>
+  </si>
+  <si>
+    <t>GetPublishers</t>
+  </si>
+  <si>
+    <t>GetItemTypes</t>
+  </si>
+  <si>
+    <t>GetGenres</t>
+  </si>
+  <si>
+    <t>GetGenresWithDescription</t>
+  </si>
+  <si>
+    <t>GetRelationTypes</t>
+  </si>
+  <si>
+    <t>GetStatus</t>
+  </si>
+  <si>
+    <t>GetAuthors</t>
+  </si>
+  <si>
+    <t>GetKnownPeople</t>
+  </si>
+  <si>
+    <t>GetLendedItems</t>
+  </si>
+  <si>
+    <t>updateToleranceDays</t>
+  </si>
+  <si>
+    <t>GetcollectionNoReviews</t>
+  </si>
+  <si>
+    <t>insert_loan_history</t>
+  </si>
+  <si>
+    <t>remove_loan_history</t>
+  </si>
+  <si>
+    <t>update_loan_history</t>
+  </si>
+  <si>
+    <t>update_loan_historyRetDate</t>
+  </si>
+  <si>
+    <t>getloan_historyPerson1ID</t>
+  </si>
+  <si>
+    <t>getloan_historyPerson2ID</t>
+  </si>
+  <si>
+    <t>getloan_historyItemID</t>
+  </si>
+  <si>
+    <t>getloan_historyLendDate</t>
+  </si>
+  <si>
+    <t>getloan_historyReturnDate</t>
+  </si>
+  <si>
+    <t>getloan_historyAmountDays</t>
+  </si>
+  <si>
+    <t>getloan_historyToleranceDY</t>
+  </si>
+  <si>
+    <t>getloan_historyToleranceDR</t>
+  </si>
+  <si>
+    <t>Query returning the number of items in the Items table</t>
+  </si>
+  <si>
+    <t>Query returning the number of items in the PersonLendItem table</t>
+  </si>
+  <si>
+    <t>Query that returns all items in alphabetical order, filterable by author's first and last name, and publisher</t>
+  </si>
+  <si>
+    <t>Query that returns all loaned items in alphabetical order, filterable by first and last name of a person, loan days, tolerance and maximum tolerance.</t>
+  </si>
+  <si>
+    <t>Query returning a cursor with all items that are not under any loan</t>
+  </si>
+  <si>
+    <t>Query returning the amount of all items that are not under any loans</t>
+  </si>
+  <si>
+    <t>Query that returns the number of N items that are on loan.</t>
+  </si>
+  <si>
+    <t>Query returning a cursor with all items borrowed N times during N months</t>
+  </si>
+  <si>
+    <t>Query that returns the items borrowed in set of people's age divided into age groups</t>
+  </si>
+  <si>
+    <t>Log query defined by 5 parameters. Start date, end date, object, type of change and user who made the change</t>
+  </si>
+  <si>
+    <t>Query that returns total and percentage of books by genre</t>
+  </si>
+  <si>
+    <t>Query that returns total and percentage of books currently checked out</t>
+  </si>
+  <si>
+    <t>Query that returns the total and percentage of books borrowed since forever</t>
+  </si>
+  <si>
+    <t>Query that returns total and percentage of books borrowed and by genre</t>
+  </si>
+  <si>
+    <t>Query that returns the total number of books borrowed by age of the borrower</t>
+  </si>
+  <si>
+    <t>Query returning all items in a user's collection</t>
+  </si>
+  <si>
+    <t>Query that returns the items borrowed in set of people's age divided into age groups.</t>
+  </si>
+  <si>
+    <t>Query returning publishers</t>
+  </si>
+  <si>
+    <t>Query that returns the types of items</t>
+  </si>
+  <si>
+    <t>Query that returns the genres</t>
+  </si>
+  <si>
+    <t>Query that returns the genres together with the descriptions</t>
+  </si>
+  <si>
+    <t>Query that returns the types of relationships</t>
+  </si>
+  <si>
+    <t>Query returning statuses</t>
+  </si>
+  <si>
+    <t>Query that returns the authors of the items</t>
+  </si>
+  <si>
+    <t>Query that returns the people a user is related to</t>
+  </si>
+  <si>
+    <t>Query that returns all borrowed items</t>
+  </si>
+  <si>
+    <t>Query that returns the tolerance days of a loan</t>
+  </si>
+  <si>
+    <t>Query returning items in the collection that have no reviews</t>
+  </si>
+  <si>
+    <t>Procedure that inserts a loan history</t>
+  </si>
+  <si>
+    <t>Procedure that removes a loan history</t>
+  </si>
+  <si>
+    <t>Procedure that updates a loan history</t>
+  </si>
+  <si>
+    <t>Procedure that updates a loan history return date</t>
+  </si>
+  <si>
+    <t>Function that returns the person id of the lender related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the person id of the borrower related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the item id of the item related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the lend date related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the return date related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the the amount of days related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the the tolerance days related to the loan history</t>
+  </si>
+  <si>
+    <t>Function that returns the the max amount of tolerance days related to the loan history</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F615E-232C-4C36-930B-091476803809}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="K286" sqref="K286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,7 +4196,7 @@
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="5" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="4" t="s">
@@ -4036,7 +4222,7 @@
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="5" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="4" t="s">
@@ -4062,7 +4248,7 @@
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="5" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="4" t="s">
@@ -4088,7 +4274,7 @@
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="5" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="4" t="s">
@@ -4099,7 +4285,7 @@
       </c>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -4110,18 +4296,18 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="5" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G220" s="7"/>
     </row>
@@ -4136,18 +4322,18 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="5" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G222" s="7"/>
     </row>
@@ -4162,18 +4348,18 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="5" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G224" s="7"/>
     </row>
@@ -4188,18 +4374,18 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="5" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G226" s="7"/>
     </row>
@@ -4214,18 +4400,18 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="5" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G228" s="7"/>
     </row>
@@ -4238,122 +4424,1258 @@
       <c r="F229" s="3"/>
       <c r="G229" s="2"/>
     </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D230" s="5"/>
+      <c r="E230" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D232" s="5"/>
+      <c r="E232" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D236" s="5"/>
+      <c r="E236" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B238" s="4"/>
+      <c r="C238" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D244" s="5"/>
+      <c r="E244" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D246" s="5"/>
+      <c r="E246" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D250" s="5"/>
+      <c r="E250" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" s="5"/>
+      <c r="E252" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D254" s="5"/>
+      <c r="E254" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D266" s="5"/>
+      <c r="E266" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G268" s="7"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B270" s="4"/>
+      <c r="C270" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G270" s="7"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B272" s="4"/>
+      <c r="C272" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G276" s="7"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G282" s="7"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D284" s="5"/>
+      <c r="E284" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G284" s="7"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D286" s="5"/>
+      <c r="E286" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G286" s="7"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G288" s="7"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B290" s="4"/>
+      <c r="C290" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D290" s="5"/>
+      <c r="E290" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G290" s="7"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="458">
-    <mergeCell ref="A224:B225"/>
-    <mergeCell ref="C224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="A226:B227"/>
-    <mergeCell ref="C226:D227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="A228:B229"/>
-    <mergeCell ref="C228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="A218:B219"/>
-    <mergeCell ref="C218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="A220:B221"/>
-    <mergeCell ref="C220:D221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="A222:B223"/>
-    <mergeCell ref="C222:D223"/>
-    <mergeCell ref="E222:E223"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="A212:B213"/>
-    <mergeCell ref="C212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="A214:B215"/>
-    <mergeCell ref="C214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="A216:B217"/>
-    <mergeCell ref="C216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:G12"/>
+  <mergeCells count="582">
+    <mergeCell ref="A290:B291"/>
+    <mergeCell ref="C290:D291"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="A284:B285"/>
+    <mergeCell ref="C284:D285"/>
+    <mergeCell ref="E284:E285"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="A286:B287"/>
+    <mergeCell ref="C286:D287"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="A288:B289"/>
+    <mergeCell ref="C288:D289"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="A278:B279"/>
+    <mergeCell ref="C278:D279"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="A280:B281"/>
+    <mergeCell ref="C280:D281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="A282:B283"/>
+    <mergeCell ref="C282:D283"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="A272:B273"/>
+    <mergeCell ref="C272:D273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="A274:B275"/>
+    <mergeCell ref="C274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="A276:B277"/>
+    <mergeCell ref="C276:D277"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="A266:B267"/>
+    <mergeCell ref="C266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="A268:B269"/>
+    <mergeCell ref="C268:D269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="A270:B271"/>
+    <mergeCell ref="C270:D271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="C260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="C262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="A264:B265"/>
+    <mergeCell ref="C264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="C254:D255"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="C256:D257"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="C258:D259"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="A248:B249"/>
+    <mergeCell ref="C248:D249"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="A250:B251"/>
+    <mergeCell ref="C250:D251"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="C252:D253"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="A242:B243"/>
+    <mergeCell ref="C242:D243"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="C244:D245"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="C246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="A236:B237"/>
+    <mergeCell ref="C236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="A238:B239"/>
+    <mergeCell ref="C238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="A240:B241"/>
+    <mergeCell ref="C240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A230:B231"/>
+    <mergeCell ref="C230:D231"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A232:B233"/>
+    <mergeCell ref="C232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="A234:B235"/>
+    <mergeCell ref="C234:D235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="A208:B209"/>
+    <mergeCell ref="C208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="A210:B211"/>
+    <mergeCell ref="C210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="A204:B205"/>
+    <mergeCell ref="C204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="A206:B207"/>
+    <mergeCell ref="C206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="A200:B201"/>
+    <mergeCell ref="C200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="A202:B203"/>
+    <mergeCell ref="C202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="A196:B197"/>
+    <mergeCell ref="C196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="A198:B199"/>
+    <mergeCell ref="C198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="A194:B195"/>
+    <mergeCell ref="C194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="A188:B189"/>
+    <mergeCell ref="C188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="A190:B191"/>
+    <mergeCell ref="C190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="A184:B185"/>
+    <mergeCell ref="C184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="A186:B187"/>
+    <mergeCell ref="C186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="A180:B181"/>
+    <mergeCell ref="C180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="A182:B183"/>
+    <mergeCell ref="C182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="A176:B177"/>
+    <mergeCell ref="C176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="A178:B179"/>
+    <mergeCell ref="C178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="A172:B173"/>
+    <mergeCell ref="C172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="A174:B175"/>
+    <mergeCell ref="C174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="A168:B169"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="A170:B171"/>
+    <mergeCell ref="C170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="A164:B165"/>
+    <mergeCell ref="C164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="A166:B167"/>
+    <mergeCell ref="C166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="A160:B161"/>
+    <mergeCell ref="C160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="A162:B163"/>
+    <mergeCell ref="C162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="A156:B157"/>
+    <mergeCell ref="C156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A158:B159"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A152:B153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="A154:B155"/>
+    <mergeCell ref="C154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="C148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="A150:B151"/>
+    <mergeCell ref="C150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="A146:B147"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="A142:B143"/>
+    <mergeCell ref="C142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="A136:B137"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="A132:B133"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="A134:B135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="A128:B129"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="A124:B125"/>
+    <mergeCell ref="C124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="A126:B127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A120:B121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="A122:B123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="C106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="A98:B99"/>
+    <mergeCell ref="C98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="A50:B51"/>
@@ -4378,326 +5700,120 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:D9"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="A82:B83"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A84:B85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A96:B97"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="A98:B99"/>
-    <mergeCell ref="C98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="A104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="A112:B113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A120:B121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="A122:B123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="A128:B129"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="A130:B131"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="A124:B125"/>
-    <mergeCell ref="C124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="A126:B127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A136:B137"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="A138:B139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="A132:B133"/>
-    <mergeCell ref="C132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="A134:B135"/>
-    <mergeCell ref="C134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="A144:B145"/>
-    <mergeCell ref="C144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="A146:B147"/>
-    <mergeCell ref="C146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="A140:B141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="A142:B143"/>
-    <mergeCell ref="C142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="A152:B153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="A154:B155"/>
-    <mergeCell ref="C154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="C148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="C150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="A160:B161"/>
-    <mergeCell ref="C160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="A162:B163"/>
-    <mergeCell ref="C162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="A156:B157"/>
-    <mergeCell ref="C156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A158:B159"/>
-    <mergeCell ref="C158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="A168:B169"/>
-    <mergeCell ref="C168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="A170:B171"/>
-    <mergeCell ref="C170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="A164:B165"/>
-    <mergeCell ref="C164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="A166:B167"/>
-    <mergeCell ref="C166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="A176:B177"/>
-    <mergeCell ref="C176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="A178:B179"/>
-    <mergeCell ref="C178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="A172:B173"/>
-    <mergeCell ref="C172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="A174:B175"/>
-    <mergeCell ref="C174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="A184:B185"/>
-    <mergeCell ref="C184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="A186:B187"/>
-    <mergeCell ref="C186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="A180:B181"/>
-    <mergeCell ref="C180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="A182:B183"/>
-    <mergeCell ref="C182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="A194:B195"/>
-    <mergeCell ref="C194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="A188:B189"/>
-    <mergeCell ref="C188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="A190:B191"/>
-    <mergeCell ref="C190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="A200:B201"/>
-    <mergeCell ref="C200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="A202:B203"/>
-    <mergeCell ref="C202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="A196:B197"/>
-    <mergeCell ref="C196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:G196"/>
-    <mergeCell ref="A198:B199"/>
-    <mergeCell ref="C198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="A208:B209"/>
-    <mergeCell ref="C208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="A210:B211"/>
-    <mergeCell ref="C210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="A204:B205"/>
-    <mergeCell ref="C204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="A206:B207"/>
-    <mergeCell ref="C206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A212:B213"/>
+    <mergeCell ref="C212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="A214:B215"/>
+    <mergeCell ref="C214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="A216:B217"/>
+    <mergeCell ref="C216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="A218:B219"/>
+    <mergeCell ref="C218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="A220:B221"/>
+    <mergeCell ref="C220:D221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="A222:B223"/>
+    <mergeCell ref="C222:D223"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="A224:B225"/>
+    <mergeCell ref="C224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="A226:B227"/>
+    <mergeCell ref="C226:D227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="A228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:G228"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
